--- a/bankroty/excely/kraje.xlsx
+++ b/bankroty/excely/kraje.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>i</t>
   </si>
@@ -181,6 +181,45 @@
   </si>
   <si>
     <t>poe1</t>
+  </si>
+  <si>
+    <t>b2m</t>
+  </si>
+  <si>
+    <t>b2z</t>
+  </si>
+  <si>
+    <t>b2p</t>
+  </si>
+  <si>
+    <t>b2c</t>
+  </si>
+  <si>
+    <t>b2v_p</t>
+  </si>
+  <si>
+    <t>b2v_m</t>
+  </si>
+  <si>
+    <t>b2v18_29</t>
+  </si>
+  <si>
+    <t>b2v30_39</t>
+  </si>
+  <si>
+    <t>b2v40_49</t>
+  </si>
+  <si>
+    <t>b2v50_64</t>
+  </si>
+  <si>
+    <t>b2v65_</t>
+  </si>
+  <si>
+    <t>poe2</t>
+  </si>
+  <si>
+    <t>o2</t>
   </si>
   <si>
     <t>CZ010</t>
@@ -378,6 +417,19 @@
     <col min="55" max="1024" width="15"/>
     <col min="56" max="1024" width="15"/>
     <col min="57" max="1024" width="15"/>
+    <col min="58" max="1024" width="15"/>
+    <col min="59" max="1024" width="15"/>
+    <col min="60" max="1024" width="15"/>
+    <col min="61" max="1024" width="15"/>
+    <col min="62" max="1024" width="15"/>
+    <col min="63" max="1024" width="15"/>
+    <col min="64" max="1024" width="15"/>
+    <col min="65" max="1024" width="15"/>
+    <col min="66" max="1024" width="15"/>
+    <col min="67" max="1024" width="15"/>
+    <col min="68" max="1024" width="15"/>
+    <col min="69" max="1024" width="15"/>
+    <col min="70" max="1024" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -552,13 +604,52 @@
       <c r="BE1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>3226</v>
@@ -723,15 +814,54 @@
         <v>1071934</v>
       </c>
       <c r="BE2">
-        <v>82443</v>
+        <v>71738</v>
+      </c>
+      <c r="BF2">
+        <v>5217</v>
+      </c>
+      <c r="BG2">
+        <v>3792</v>
+      </c>
+      <c r="BH2">
+        <v>2633</v>
+      </c>
+      <c r="BI2">
+        <v>9132</v>
+      </c>
+      <c r="BJ2">
+        <v>46.93</v>
+      </c>
+      <c r="BK2">
+        <v>47</v>
+      </c>
+      <c r="BL2">
+        <v>447</v>
+      </c>
+      <c r="BM2">
+        <v>2091</v>
+      </c>
+      <c r="BN2">
+        <v>2767</v>
+      </c>
+      <c r="BO2">
+        <v>2827</v>
+      </c>
+      <c r="BP2">
+        <v>877</v>
+      </c>
+      <c r="BQ2">
+        <v>74205</v>
+      </c>
+      <c r="BR2">
+        <v>1071934</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>6401</v>
@@ -896,15 +1026,54 @@
         <v>1138303</v>
       </c>
       <c r="BE3">
-        <v>86090</v>
+        <v>69883</v>
+      </c>
+      <c r="BF3">
+        <v>6479</v>
+      </c>
+      <c r="BG3">
+        <v>5504</v>
+      </c>
+      <c r="BH3">
+        <v>2744</v>
+      </c>
+      <c r="BI3">
+        <v>12002</v>
+      </c>
+      <c r="BJ3">
+        <v>45.5</v>
+      </c>
+      <c r="BK3">
+        <v>45</v>
+      </c>
+      <c r="BL3">
+        <v>932</v>
+      </c>
+      <c r="BM3">
+        <v>3323</v>
+      </c>
+      <c r="BN3">
+        <v>3490</v>
+      </c>
+      <c r="BO3">
+        <v>3246</v>
+      </c>
+      <c r="BP3">
+        <v>992</v>
+      </c>
+      <c r="BQ3">
+        <v>68929</v>
+      </c>
+      <c r="BR3">
+        <v>1138303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>3935</v>
@@ -1069,15 +1238,54 @@
         <v>535478</v>
       </c>
       <c r="BE4">
-        <v>42395</v>
+        <v>35338</v>
+      </c>
+      <c r="BF4">
+        <v>3298</v>
+      </c>
+      <c r="BG4">
+        <v>2803</v>
+      </c>
+      <c r="BH4">
+        <v>1209</v>
+      </c>
+      <c r="BI4">
+        <v>6112</v>
+      </c>
+      <c r="BJ4">
+        <v>45.31</v>
+      </c>
+      <c r="BK4">
+        <v>45</v>
+      </c>
+      <c r="BL4">
+        <v>549</v>
+      </c>
+      <c r="BM4">
+        <v>1643</v>
+      </c>
+      <c r="BN4">
+        <v>1740</v>
+      </c>
+      <c r="BO4">
+        <v>1698</v>
+      </c>
+      <c r="BP4">
+        <v>471</v>
+      </c>
+      <c r="BQ4">
+        <v>35179</v>
+      </c>
+      <c r="BR4">
+        <v>535478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>3202</v>
@@ -1242,15 +1450,54 @@
         <v>487994</v>
       </c>
       <c r="BE5">
-        <v>44946</v>
+        <v>37099</v>
+      </c>
+      <c r="BF5">
+        <v>3266</v>
+      </c>
+      <c r="BG5">
+        <v>2737</v>
+      </c>
+      <c r="BH5">
+        <v>1411</v>
+      </c>
+      <c r="BI5">
+        <v>6014</v>
+      </c>
+      <c r="BJ5">
+        <v>45.28</v>
+      </c>
+      <c r="BK5">
+        <v>44</v>
+      </c>
+      <c r="BL5">
+        <v>516</v>
+      </c>
+      <c r="BM5">
+        <v>1685</v>
+      </c>
+      <c r="BN5">
+        <v>1682</v>
+      </c>
+      <c r="BO5">
+        <v>1634</v>
+      </c>
+      <c r="BP5">
+        <v>486</v>
+      </c>
+      <c r="BQ5">
+        <v>36075</v>
+      </c>
+      <c r="BR5">
+        <v>487994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>2558</v>
@@ -1415,15 +1662,54 @@
         <v>240756</v>
       </c>
       <c r="BE6">
-        <v>41303</v>
+        <v>31401</v>
+      </c>
+      <c r="BF6">
+        <v>2362</v>
+      </c>
+      <c r="BG6">
+        <v>2058</v>
+      </c>
+      <c r="BH6">
+        <v>1092</v>
+      </c>
+      <c r="BI6">
+        <v>4422</v>
+      </c>
+      <c r="BJ6">
+        <v>46.05</v>
+      </c>
+      <c r="BK6">
+        <v>46</v>
+      </c>
+      <c r="BL6">
+        <v>352</v>
+      </c>
+      <c r="BM6">
+        <v>1158</v>
+      </c>
+      <c r="BN6">
+        <v>1217</v>
+      </c>
+      <c r="BO6">
+        <v>1304</v>
+      </c>
+      <c r="BP6">
+        <v>389</v>
+      </c>
+      <c r="BQ6">
+        <v>31443</v>
+      </c>
+      <c r="BR6">
+        <v>240756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>7903</v>
@@ -1588,15 +1874,54 @@
         <v>671745</v>
       </c>
       <c r="BE7">
-        <v>115770</v>
+        <v>94400</v>
+      </c>
+      <c r="BF7">
+        <v>7554</v>
+      </c>
+      <c r="BG7">
+        <v>6400</v>
+      </c>
+      <c r="BH7">
+        <v>3457</v>
+      </c>
+      <c r="BI7">
+        <v>13962</v>
+      </c>
+      <c r="BJ7">
+        <v>45.8</v>
+      </c>
+      <c r="BK7">
+        <v>45</v>
+      </c>
+      <c r="BL7">
+        <v>1152</v>
+      </c>
+      <c r="BM7">
+        <v>3618</v>
+      </c>
+      <c r="BN7">
+        <v>4112</v>
+      </c>
+      <c r="BO7">
+        <v>3917</v>
+      </c>
+      <c r="BP7">
+        <v>1155</v>
+      </c>
+      <c r="BQ7">
+        <v>94391</v>
+      </c>
+      <c r="BR7">
+        <v>671745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>3039</v>
@@ -1761,15 +2086,54 @@
         <v>366364</v>
       </c>
       <c r="BE8">
-        <v>39197</v>
+        <v>34145</v>
+      </c>
+      <c r="BF8">
+        <v>3191</v>
+      </c>
+      <c r="BG8">
+        <v>2759</v>
+      </c>
+      <c r="BH8">
+        <v>1407</v>
+      </c>
+      <c r="BI8">
+        <v>5964</v>
+      </c>
+      <c r="BJ8">
+        <v>45.79</v>
+      </c>
+      <c r="BK8">
+        <v>45</v>
+      </c>
+      <c r="BL8">
+        <v>495</v>
+      </c>
+      <c r="BM8">
+        <v>1533</v>
+      </c>
+      <c r="BN8">
+        <v>1715</v>
+      </c>
+      <c r="BO8">
+        <v>1701</v>
+      </c>
+      <c r="BP8">
+        <v>506</v>
+      </c>
+      <c r="BQ8">
+        <v>33907</v>
+      </c>
+      <c r="BR8">
+        <v>366364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>3703</v>
@@ -1934,15 +2298,54 @@
         <v>457466</v>
       </c>
       <c r="BE9">
-        <v>34577</v>
+        <v>28216</v>
+      </c>
+      <c r="BF9">
+        <v>3297</v>
+      </c>
+      <c r="BG9">
+        <v>2561</v>
+      </c>
+      <c r="BH9">
+        <v>1251</v>
+      </c>
+      <c r="BI9">
+        <v>5860</v>
+      </c>
+      <c r="BJ9">
+        <v>45.33</v>
+      </c>
+      <c r="BK9">
+        <v>44</v>
+      </c>
+      <c r="BL9">
+        <v>534</v>
+      </c>
+      <c r="BM9">
+        <v>1633</v>
+      </c>
+      <c r="BN9">
+        <v>1637</v>
+      </c>
+      <c r="BO9">
+        <v>1557</v>
+      </c>
+      <c r="BP9">
+        <v>497</v>
+      </c>
+      <c r="BQ9">
+        <v>27985</v>
+      </c>
+      <c r="BR9">
+        <v>457466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>3084</v>
@@ -2107,15 +2510,54 @@
         <v>431633</v>
       </c>
       <c r="BE10">
-        <v>28700</v>
+        <v>24432</v>
+      </c>
+      <c r="BF10">
+        <v>2794</v>
+      </c>
+      <c r="BG10">
+        <v>2234</v>
+      </c>
+      <c r="BH10">
+        <v>1122</v>
+      </c>
+      <c r="BI10">
+        <v>5037</v>
+      </c>
+      <c r="BJ10">
+        <v>45.41</v>
+      </c>
+      <c r="BK10">
+        <v>45</v>
+      </c>
+      <c r="BL10">
+        <v>458</v>
+      </c>
+      <c r="BM10">
+        <v>1363</v>
+      </c>
+      <c r="BN10">
+        <v>1415</v>
+      </c>
+      <c r="BO10">
+        <v>1365</v>
+      </c>
+      <c r="BP10">
+        <v>427</v>
+      </c>
+      <c r="BQ10">
+        <v>24775</v>
+      </c>
+      <c r="BR10">
+        <v>431633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>2130</v>
@@ -2280,15 +2722,54 @@
         <v>424461</v>
       </c>
       <c r="BE11">
-        <v>21924</v>
+        <v>18792</v>
+      </c>
+      <c r="BF11">
+        <v>2106</v>
+      </c>
+      <c r="BG11">
+        <v>1663</v>
+      </c>
+      <c r="BH11">
+        <v>912</v>
+      </c>
+      <c r="BI11">
+        <v>3774</v>
+      </c>
+      <c r="BJ11">
+        <v>45.78</v>
+      </c>
+      <c r="BK11">
+        <v>45</v>
+      </c>
+      <c r="BL11">
+        <v>300</v>
+      </c>
+      <c r="BM11">
+        <v>1037</v>
+      </c>
+      <c r="BN11">
+        <v>1053</v>
+      </c>
+      <c r="BO11">
+        <v>1045</v>
+      </c>
+      <c r="BP11">
+        <v>334</v>
+      </c>
+      <c r="BQ11">
+        <v>18837</v>
+      </c>
+      <c r="BR11">
+        <v>424461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>4891</v>
@@ -2453,15 +2934,54 @@
         <v>990498</v>
       </c>
       <c r="BE12">
-        <v>66695</v>
+        <v>58743</v>
+      </c>
+      <c r="BF12">
+        <v>5901</v>
+      </c>
+      <c r="BG12">
+        <v>4639</v>
+      </c>
+      <c r="BH12">
+        <v>2365</v>
+      </c>
+      <c r="BI12">
+        <v>10555</v>
+      </c>
+      <c r="BJ12">
+        <v>47.78</v>
+      </c>
+      <c r="BK12">
+        <v>46</v>
+      </c>
+      <c r="BL12">
+        <v>647</v>
+      </c>
+      <c r="BM12">
+        <v>2525</v>
+      </c>
+      <c r="BN12">
+        <v>3106</v>
+      </c>
+      <c r="BO12">
+        <v>3208</v>
+      </c>
+      <c r="BP12">
+        <v>1055</v>
+      </c>
+      <c r="BQ12">
+        <v>59608</v>
+      </c>
+      <c r="BR12">
+        <v>990498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>3335</v>
@@ -2626,15 +3146,54 @@
         <v>524703</v>
       </c>
       <c r="BE13">
-        <v>40798</v>
+        <v>35156</v>
+      </c>
+      <c r="BF13">
+        <v>3487</v>
+      </c>
+      <c r="BG13">
+        <v>2789</v>
+      </c>
+      <c r="BH13">
+        <v>1422</v>
+      </c>
+      <c r="BI13">
+        <v>6285</v>
+      </c>
+      <c r="BJ13">
+        <v>46.45</v>
+      </c>
+      <c r="BK13">
+        <v>46</v>
+      </c>
+      <c r="BL13">
+        <v>464</v>
+      </c>
+      <c r="BM13">
+        <v>1609</v>
+      </c>
+      <c r="BN13">
+        <v>1759</v>
+      </c>
+      <c r="BO13">
+        <v>1853</v>
+      </c>
+      <c r="BP13">
+        <v>591</v>
+      </c>
+      <c r="BQ13">
+        <v>34723</v>
+      </c>
+      <c r="BR13">
+        <v>524703</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>2315</v>
@@ -2799,15 +3358,54 @@
         <v>484593</v>
       </c>
       <c r="BE14">
-        <v>26354</v>
+        <v>22683</v>
+      </c>
+      <c r="BF14">
+        <v>2490</v>
+      </c>
+      <c r="BG14">
+        <v>1919</v>
+      </c>
+      <c r="BH14">
+        <v>830</v>
+      </c>
+      <c r="BI14">
+        <v>4417</v>
+      </c>
+      <c r="BJ14">
+        <v>47.48</v>
+      </c>
+      <c r="BK14">
+        <v>47</v>
+      </c>
+      <c r="BL14">
+        <v>243</v>
+      </c>
+      <c r="BM14">
+        <v>1046</v>
+      </c>
+      <c r="BN14">
+        <v>1268</v>
+      </c>
+      <c r="BO14">
+        <v>1390</v>
+      </c>
+      <c r="BP14">
+        <v>461</v>
+      </c>
+      <c r="BQ14">
+        <v>22013</v>
+      </c>
+      <c r="BR14">
+        <v>484593</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>8454</v>
@@ -2972,7 +3570,46 @@
         <v>997371</v>
       </c>
       <c r="BE15">
-        <v>103330</v>
+        <v>91884</v>
+      </c>
+      <c r="BF15">
+        <v>8867</v>
+      </c>
+      <c r="BG15">
+        <v>7165</v>
+      </c>
+      <c r="BH15">
+        <v>3451</v>
+      </c>
+      <c r="BI15">
+        <v>16035</v>
+      </c>
+      <c r="BJ15">
+        <v>46.11</v>
+      </c>
+      <c r="BK15">
+        <v>45</v>
+      </c>
+      <c r="BL15">
+        <v>1329</v>
+      </c>
+      <c r="BM15">
+        <v>4356</v>
+      </c>
+      <c r="BN15">
+        <v>4284</v>
+      </c>
+      <c r="BO15">
+        <v>4544</v>
+      </c>
+      <c r="BP15">
+        <v>1519</v>
+      </c>
+      <c r="BQ15">
+        <v>90088</v>
+      </c>
+      <c r="BR15">
+        <v>997371</v>
       </c>
     </row>
   </sheetData>
